--- a/xlsx/明尼苏达州_intext.xlsx
+++ b/xlsx/明尼苏达州_intext.xlsx
@@ -15,27 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="424">
   <si>
     <t>明尼苏达州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_明尼苏达州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>明尼蘇達州州旗</t>
+    <t>明尼苏达州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BF%9D%E7%BE%85_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>聖保羅 (美國)</t>
+    <t>圣保罗 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E9%98%BF%E6%B3%A2%E5%88%A9%E6%96%AF</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%B0%94%C2%B7%E5%BC%97%E5%85%B0%E8%82%AF</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -197,9 +197,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
   </si>
   <si>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E4%BA%BA</t>
   </si>
   <si>
-    <t>維京人</t>
+    <t>维京人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%99%E6%B0%B4%E5%B8%82</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E8%8F%9C</t>
   </si>
   <si>
-    <t>熱菜</t>
+    <t>热菜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%8C%E5%9C%BA</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E7%8D%B5</t>
   </si>
   <si>
-    <t>打獵</t>
+    <t>打猎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%93%E9%B1%BC</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>平民主義</t>
+    <t>平民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E6%98%8E%E9%A0%93</t>
   </si>
   <si>
-    <t>布魯明頓</t>
+    <t>布鲁明顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E7%93%A6</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%9C%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>富國銀行</t>
+    <t>富国银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%95%86%E7%94%A8%E6%9C%BA%E5%99%A8%E5%85%AC%E5%8F%B8</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B7%E5%94%AE%E7%A8%85</t>
   </si>
   <si>
-    <t>銷售稅</t>
+    <t>销售税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%9F%E8%8D%89</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>國民警衛隊</t>
+    <t>国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E6%9C%83</t>
   </si>
   <si>
-    <t>路德會</t>
+    <t>路德会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E4%BD%A9%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>凱佩拉大學</t>
+    <t>凯佩拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E9%A1%BF%E5%AD%A6%E9%99%A2</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%B0%E6%9E%97%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>翰林大學</t>
+    <t>翰林大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%A5%9E%E5%AD%A6%E9%99%A2</t>
@@ -695,37 +692,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%8F%AF%E6%B2%99%E8%BC%95%E8%BB%8C%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>海華沙輕軌鐵路</t>
+    <t>海华沙轻轨铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E9%98%BF%E6%B3%A2%E5%88%A9%E6%96%AF%E2%94%80%E8%81%96%E4%BF%9D%E7%BE%85%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>明尼阿波利斯─聖保羅國際機場</t>
+    <t>明尼阿波利斯─圣保罗国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>達美航空</t>
+    <t>达美航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/35%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>35號州際公路</t>
+    <t>35号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/90%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>90號州際公路</t>
+    <t>90号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/94%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>94號州際公路</t>
+    <t>94号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFL</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E7%B6%AD%E4%BA%AC%E4%BA%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>明尼蘇達維京人隊</t>
+    <t>明尼苏达维京人队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MLB</t>
@@ -779,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E7%81%B0%E7%8B%BC%E9%9A%8A</t>
   </si>
   <si>
-    <t>明尼蘇達灰狼隊</t>
+    <t>明尼苏达灰狼队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B1%B1%E8%B2%93</t>
   </si>
   <si>
-    <t>明尼蘇達山貓</t>
+    <t>明尼苏达山猫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NHL</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E8%8D%92%E9%87%8E</t>
   </si>
   <si>
-    <t>明尼蘇達荒野</t>
+    <t>明尼苏达荒野</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%A1%91%C2%B7%E7%A7%91%E6%81%A9</t>
@@ -827,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國副總統</t>
+    <t>美国副总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%96%87%C2%B7%E9%BA%A6%E5%85%8B%E6%B5%B7%E5%B0%94</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AD%90_(%E9%9F%B3%E6%A8%82%E5%AE%B6)</t>
   </si>
   <si>
-    <t>王子 (音樂家)</t>
+    <t>王子 (音乐家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%BC%8F%E5%8F%8B%E5%96%84</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -881,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -953,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -983,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1073,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1121,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
@@ -1133,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1145,19 +1142,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1175,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1187,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1199,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1211,25 +1208,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1259,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1277,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1290,15 +1287,6 @@
   </si>
   <si>
     <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2510,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>45</v>
@@ -2536,10 +2524,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2565,10 +2553,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2594,10 +2582,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2623,10 +2611,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -2652,10 +2640,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2681,10 +2669,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2710,10 +2698,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2739,10 +2727,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2768,10 +2756,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2797,10 +2785,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -2826,10 +2814,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2855,10 +2843,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2884,10 +2872,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2913,10 +2901,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2942,10 +2930,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2971,10 +2959,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3000,10 +2988,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3029,10 +3017,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3058,10 +3046,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3087,10 +3075,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3116,10 +3104,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3145,10 +3133,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3174,10 +3162,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3203,10 +3191,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3232,10 +3220,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3261,10 +3249,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3290,10 +3278,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3319,10 +3307,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3348,10 +3336,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3377,10 +3365,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3406,10 +3394,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3435,10 +3423,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3464,10 +3452,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3493,10 +3481,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3522,10 +3510,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3551,10 +3539,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3580,10 +3568,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3638,10 +3626,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>5</v>
@@ -3667,10 +3655,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3725,10 +3713,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -3754,10 +3742,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3783,10 +3771,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3812,10 +3800,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3841,10 +3829,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3870,10 +3858,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3899,10 +3887,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3928,10 +3916,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3957,10 +3945,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3986,10 +3974,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4015,10 +4003,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4044,10 +4032,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4073,10 +4061,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4102,10 +4090,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4131,10 +4119,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4160,10 +4148,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4189,10 +4177,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4218,10 +4206,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4247,10 +4235,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4276,10 +4264,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4305,10 +4293,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4334,10 +4322,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4363,10 +4351,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4392,10 +4380,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4421,10 +4409,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4450,10 +4438,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4479,10 +4467,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4508,10 +4496,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4537,10 +4525,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4566,10 +4554,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4595,10 +4583,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4624,10 +4612,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4653,10 +4641,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4682,10 +4670,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4711,10 +4699,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4740,10 +4728,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4769,10 +4757,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4798,10 +4786,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4827,10 +4815,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4856,10 +4844,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4885,10 +4873,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4914,10 +4902,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>5</v>
@@ -4943,10 +4931,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4972,10 +4960,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5001,10 +4989,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5030,10 +5018,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5059,10 +5047,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5088,10 +5076,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5117,10 +5105,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5146,10 +5134,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5175,10 +5163,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5204,10 +5192,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5233,10 +5221,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5262,10 +5250,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5291,10 +5279,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5320,10 +5308,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5349,10 +5337,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5378,10 +5366,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5407,10 +5395,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
         <v>255</v>
-      </c>
-      <c r="F130" t="s">
-        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5436,10 +5424,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" t="s">
         <v>257</v>
-      </c>
-      <c r="F131" t="s">
-        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5465,10 +5453,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" t="s">
         <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5494,10 +5482,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
         <v>261</v>
-      </c>
-      <c r="F133" t="s">
-        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5523,10 +5511,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
         <v>263</v>
-      </c>
-      <c r="F134" t="s">
-        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5552,10 +5540,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
         <v>265</v>
-      </c>
-      <c r="F135" t="s">
-        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5581,10 +5569,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5610,10 +5598,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5639,10 +5627,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5668,10 +5656,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5697,10 +5685,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5726,10 +5714,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5755,10 +5743,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>5</v>
@@ -5784,10 +5772,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5813,13 +5801,13 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
       </c>
-      <c r="F144" t="s">
-        <v>284</v>
-      </c>
       <c r="G144" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -5842,10 +5830,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5871,10 +5859,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>154</v>
+      </c>
+      <c r="F146" t="s">
         <v>155</v>
-      </c>
-      <c r="F146" t="s">
-        <v>156</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -5900,10 +5888,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5929,10 +5917,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5958,10 +5946,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>88</v>
+      </c>
+      <c r="F149" t="s">
         <v>89</v>
-      </c>
-      <c r="F149" t="s">
-        <v>90</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5987,10 +5975,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" t="s">
         <v>291</v>
-      </c>
-      <c r="F150" t="s">
-        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6016,10 +6004,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" t="s">
         <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6045,10 +6033,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" t="s">
         <v>295</v>
-      </c>
-      <c r="F152" t="s">
-        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6074,10 +6062,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" t="s">
         <v>297</v>
-      </c>
-      <c r="F153" t="s">
-        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6103,10 +6091,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" t="s">
         <v>299</v>
-      </c>
-      <c r="F154" t="s">
-        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6132,10 +6120,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6161,10 +6149,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F156" t="s">
         <v>303</v>
-      </c>
-      <c r="F156" t="s">
-        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6190,10 +6178,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>304</v>
+      </c>
+      <c r="F157" t="s">
         <v>305</v>
-      </c>
-      <c r="F157" t="s">
-        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6219,10 +6207,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>306</v>
+      </c>
+      <c r="F158" t="s">
         <v>307</v>
-      </c>
-      <c r="F158" t="s">
-        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6248,10 +6236,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>308</v>
+      </c>
+      <c r="F159" t="s">
         <v>309</v>
-      </c>
-      <c r="F159" t="s">
-        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6277,10 +6265,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>310</v>
+      </c>
+      <c r="F160" t="s">
         <v>311</v>
-      </c>
-      <c r="F160" t="s">
-        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6306,10 +6294,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>312</v>
+      </c>
+      <c r="F161" t="s">
         <v>313</v>
-      </c>
-      <c r="F161" t="s">
-        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6335,10 +6323,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>314</v>
+      </c>
+      <c r="F162" t="s">
         <v>315</v>
-      </c>
-      <c r="F162" t="s">
-        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6364,10 +6352,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>316</v>
+      </c>
+      <c r="F163" t="s">
         <v>317</v>
-      </c>
-      <c r="F163" t="s">
-        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6393,10 +6381,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>318</v>
+      </c>
+      <c r="F164" t="s">
         <v>319</v>
-      </c>
-      <c r="F164" t="s">
-        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6422,10 +6410,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>320</v>
+      </c>
+      <c r="F165" t="s">
         <v>321</v>
-      </c>
-      <c r="F165" t="s">
-        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6451,10 +6439,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>152</v>
+      </c>
+      <c r="F166" t="s">
         <v>153</v>
-      </c>
-      <c r="F166" t="s">
-        <v>154</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6480,10 +6468,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>5</v>
@@ -6509,10 +6497,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
-      </c>
-      <c r="F168" t="s">
-        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6538,10 +6526,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6567,10 +6555,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6596,10 +6584,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" t="s">
         <v>331</v>
-      </c>
-      <c r="F171" t="s">
-        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6625,10 +6613,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6654,10 +6642,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6683,10 +6671,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
-      </c>
-      <c r="F174" t="s">
-        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6712,10 +6700,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6741,10 +6729,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6770,10 +6758,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>86</v>
+      </c>
+      <c r="F177" t="s">
         <v>87</v>
-      </c>
-      <c r="F177" t="s">
-        <v>88</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -6799,10 +6787,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>342</v>
+      </c>
+      <c r="F178" t="s">
         <v>343</v>
-      </c>
-      <c r="F178" t="s">
-        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6828,10 +6816,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>344</v>
+      </c>
+      <c r="F179" t="s">
         <v>345</v>
-      </c>
-      <c r="F179" t="s">
-        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6857,10 +6845,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>346</v>
+      </c>
+      <c r="F180" t="s">
         <v>347</v>
-      </c>
-      <c r="F180" t="s">
-        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6886,10 +6874,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>348</v>
+      </c>
+      <c r="F181" t="s">
         <v>349</v>
-      </c>
-      <c r="F181" t="s">
-        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6915,10 +6903,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>350</v>
+      </c>
+      <c r="F182" t="s">
         <v>351</v>
-      </c>
-      <c r="F182" t="s">
-        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6944,10 +6932,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>352</v>
+      </c>
+      <c r="F183" t="s">
         <v>353</v>
-      </c>
-      <c r="F183" t="s">
-        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6973,10 +6961,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>84</v>
+      </c>
+      <c r="F184" t="s">
         <v>85</v>
-      </c>
-      <c r="F184" t="s">
-        <v>86</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -7002,10 +6990,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>354</v>
+      </c>
+      <c r="F185" t="s">
         <v>355</v>
-      </c>
-      <c r="F185" t="s">
-        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7031,10 +7019,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>356</v>
+      </c>
+      <c r="F186" t="s">
         <v>357</v>
-      </c>
-      <c r="F186" t="s">
-        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7060,10 +7048,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>358</v>
+      </c>
+      <c r="F187" t="s">
         <v>359</v>
-      </c>
-      <c r="F187" t="s">
-        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7089,10 +7077,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>360</v>
+      </c>
+      <c r="F188" t="s">
         <v>361</v>
-      </c>
-      <c r="F188" t="s">
-        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7118,10 +7106,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>362</v>
+      </c>
+      <c r="F189" t="s">
         <v>363</v>
-      </c>
-      <c r="F189" t="s">
-        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7147,10 +7135,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F190" t="s">
         <v>365</v>
-      </c>
-      <c r="F190" t="s">
-        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7176,10 +7164,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" t="s">
         <v>367</v>
-      </c>
-      <c r="F191" t="s">
-        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7205,10 +7193,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>148</v>
+      </c>
+      <c r="F192" t="s">
         <v>149</v>
-      </c>
-      <c r="F192" t="s">
-        <v>150</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7234,10 +7222,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>368</v>
+      </c>
+      <c r="F193" t="s">
         <v>369</v>
-      </c>
-      <c r="F193" t="s">
-        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7263,10 +7251,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>370</v>
+      </c>
+      <c r="F194" t="s">
         <v>371</v>
-      </c>
-      <c r="F194" t="s">
-        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7292,10 +7280,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>372</v>
+      </c>
+      <c r="F195" t="s">
         <v>373</v>
-      </c>
-      <c r="F195" t="s">
-        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7321,10 +7309,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" t="s">
         <v>375</v>
-      </c>
-      <c r="F196" t="s">
-        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7350,10 +7338,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>376</v>
+      </c>
+      <c r="F197" t="s">
         <v>377</v>
-      </c>
-      <c r="F197" t="s">
-        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7379,10 +7367,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>378</v>
+      </c>
+      <c r="F198" t="s">
         <v>379</v>
-      </c>
-      <c r="F198" t="s">
-        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7408,10 +7396,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>380</v>
+      </c>
+      <c r="F199" t="s">
         <v>381</v>
-      </c>
-      <c r="F199" t="s">
-        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7437,10 +7425,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>382</v>
+      </c>
+      <c r="F200" t="s">
         <v>383</v>
-      </c>
-      <c r="F200" t="s">
-        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7466,10 +7454,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>384</v>
+      </c>
+      <c r="F201" t="s">
         <v>385</v>
-      </c>
-      <c r="F201" t="s">
-        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7495,10 +7483,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>386</v>
+      </c>
+      <c r="F202" t="s">
         <v>387</v>
-      </c>
-      <c r="F202" t="s">
-        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7524,10 +7512,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>388</v>
+      </c>
+      <c r="F203" t="s">
         <v>389</v>
-      </c>
-      <c r="F203" t="s">
-        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7553,10 +7541,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>390</v>
+      </c>
+      <c r="F204" t="s">
         <v>391</v>
-      </c>
-      <c r="F204" t="s">
-        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7582,10 +7570,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>392</v>
+      </c>
+      <c r="F205" t="s">
         <v>393</v>
-      </c>
-      <c r="F205" t="s">
-        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7611,10 +7599,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>394</v>
+      </c>
+      <c r="F206" t="s">
         <v>395</v>
-      </c>
-      <c r="F206" t="s">
-        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7640,10 +7628,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>396</v>
+      </c>
+      <c r="F207" t="s">
         <v>397</v>
-      </c>
-      <c r="F207" t="s">
-        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7669,10 +7657,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>398</v>
+      </c>
+      <c r="F208" t="s">
         <v>399</v>
-      </c>
-      <c r="F208" t="s">
-        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7698,10 +7686,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>400</v>
+      </c>
+      <c r="F209" t="s">
         <v>401</v>
-      </c>
-      <c r="F209" t="s">
-        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7727,10 +7715,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>402</v>
+      </c>
+      <c r="F210" t="s">
         <v>403</v>
-      </c>
-      <c r="F210" t="s">
-        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7756,10 +7744,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>404</v>
+      </c>
+      <c r="F211" t="s">
         <v>405</v>
-      </c>
-      <c r="F211" t="s">
-        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7785,10 +7773,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>406</v>
+      </c>
+      <c r="F212" t="s">
         <v>407</v>
-      </c>
-      <c r="F212" t="s">
-        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7814,10 +7802,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>408</v>
+      </c>
+      <c r="F213" t="s">
         <v>409</v>
-      </c>
-      <c r="F213" t="s">
-        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7843,10 +7831,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>410</v>
+      </c>
+      <c r="F214" t="s">
         <v>411</v>
-      </c>
-      <c r="F214" t="s">
-        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7872,10 +7860,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>412</v>
+      </c>
+      <c r="F215" t="s">
         <v>413</v>
-      </c>
-      <c r="F215" t="s">
-        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -7901,10 +7889,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>414</v>
+      </c>
+      <c r="F216" t="s">
         <v>415</v>
-      </c>
-      <c r="F216" t="s">
-        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7930,10 +7918,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>416</v>
+      </c>
+      <c r="F217" t="s">
         <v>417</v>
-      </c>
-      <c r="F217" t="s">
-        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7959,10 +7947,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>418</v>
+      </c>
+      <c r="F218" t="s">
         <v>419</v>
-      </c>
-      <c r="F218" t="s">
-        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7988,10 +7976,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>420</v>
+      </c>
+      <c r="F219" t="s">
         <v>421</v>
-      </c>
-      <c r="F219" t="s">
-        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8017,11 +8005,11 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>422</v>
+      </c>
+      <c r="F220" t="s">
         <v>423</v>
       </c>
-      <c r="F220" t="s">
-        <v>424</v>
-      </c>
       <c r="G220" t="n">
         <v>1</v>
       </c>
@@ -8029,64 +8017,6 @@
         <v>4</v>
       </c>
       <c r="I220" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="s">
-        <v>0</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1</v>
-      </c>
-      <c r="D221" t="n">
-        <v>220</v>
-      </c>
-      <c r="E221" t="s">
-        <v>425</v>
-      </c>
-      <c r="F221" t="s">
-        <v>426</v>
-      </c>
-      <c r="G221" t="n">
-        <v>10</v>
-      </c>
-      <c r="H221" t="s">
-        <v>4</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="s">
-        <v>0</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1</v>
-      </c>
-      <c r="D222" t="n">
-        <v>221</v>
-      </c>
-      <c r="E222" t="s">
-        <v>425</v>
-      </c>
-      <c r="F222" t="s">
-        <v>427</v>
-      </c>
-      <c r="G222" t="n">
-        <v>1</v>
-      </c>
-      <c r="H222" t="s">
-        <v>4</v>
-      </c>
-      <c r="I222" t="n">
         <v>3</v>
       </c>
     </row>
